--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FF075AE5-D86F-4345-B218-C8C78C6ACBBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5238F64C-A169-4C9A-B300-F5E4B9F68F90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{04847335-95E2-4DFC-AD03-2EEA407C504C}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <t>Попова С. С.</t>
   </si>
   <si>
-    <t>lorbrihil@gmail.com</t>
-  </si>
-  <si>
     <t>Сухоруков Н. Н.</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Резуненко А. И.</t>
-  </si>
-  <si>
-    <t>bikl4_ny@mail.ru</t>
   </si>
   <si>
     <t>luckyvegas888@gmail.com</t>
@@ -119,6 +113,12 @@
   </si>
   <si>
     <t>Ульев А.</t>
+  </si>
+  <si>
+    <t>bik14_ny@mail.ru</t>
+  </si>
+  <si>
+    <t>lorbrinil@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="T2" s="43"/>
       <c r="U2" s="43">
-        <v>43439</v>
+        <v>43452</v>
       </c>
       <c r="V2" s="43"/>
       <c r="W2" s="43">
@@ -1319,7 +1319,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="36" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="37"/>
       <c r="AA4" s="38"/>
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52"/>
@@ -1356,7 +1356,7 @@
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z5" s="27"/>
       <c r="AA5" s="28"/>
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
@@ -1393,7 +1393,7 @@
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="24"/>
       <c r="AA6" s="25"/>
@@ -1403,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52"/>
@@ -1430,7 +1430,7 @@
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
       <c r="Y7" s="29" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="27"/>
       <c r="AA7" s="28"/>
@@ -1440,7 +1440,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52"/>
@@ -1467,7 +1467,7 @@
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="27"/>
       <c r="AA8" s="28"/>
@@ -1477,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="52"/>
@@ -1504,7 +1504,7 @@
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z9" s="27"/>
       <c r="AA9" s="28"/>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
@@ -1541,7 +1541,7 @@
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z10" s="27"/>
       <c r="AA10" s="28"/>
@@ -1551,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="52"/>
@@ -1578,7 +1578,7 @@
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z11" s="27"/>
       <c r="AA11" s="28"/>
@@ -2116,7 +2116,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,11 +2182,11 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="46">
-        <v>43376</v>
+        <v>43382</v>
       </c>
       <c r="F2" s="43"/>
       <c r="G2" s="43">
-        <v>43382</v>
+        <v>43390</v>
       </c>
       <c r="H2" s="43"/>
       <c r="I2" s="43">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="J2" s="43"/>
       <c r="K2" s="43">
-        <v>43404</v>
+        <v>43410</v>
       </c>
       <c r="L2" s="43"/>
       <c r="M2" s="43">
-        <v>43410</v>
+        <v>43418</v>
       </c>
       <c r="N2" s="43"/>
       <c r="O2" s="43">
@@ -2206,15 +2206,15 @@
       </c>
       <c r="P2" s="43"/>
       <c r="Q2" s="43">
-        <v>43432</v>
+        <v>43438</v>
       </c>
       <c r="R2" s="43"/>
       <c r="S2" s="43">
-        <v>43438</v>
+        <v>43446</v>
       </c>
       <c r="T2" s="43"/>
       <c r="U2" s="43">
-        <v>43439</v>
+        <v>43452</v>
       </c>
       <c r="V2" s="43"/>
       <c r="W2" s="43">
@@ -2978,16 +2978,13 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:D3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3002,13 +2999,16 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="B9:D9"/>

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5238F64C-A169-4C9A-B300-F5E4B9F68F90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{04847335-95E2-4DFC-AD03-2EEA407C504C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
     <sheet name="САПР - 1.1п" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Студент</t>
   </si>
@@ -119,13 +113,22 @@
   </si>
   <si>
     <t>lorbrinil@gmail.com</t>
+  </si>
+  <si>
+    <t>Липендина Т. В.</t>
+  </si>
+  <si>
+    <t>lipendina.tn@gmail.com</t>
+  </si>
+  <si>
+    <t>Гнеушев В. А.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +620,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -643,105 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -845,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -897,7 +900,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1091,21 +1094,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578A60F3-2A2C-4DD5-BDAA-EE2C74E51812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1114,115 +1117,115 @@
     <col min="26" max="27" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43376</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43382</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43404</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43410</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43432</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43438</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1283,19 +1286,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1318,24 +1321,1044 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A25" s="5">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E4:E11">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
+      <formula>NOT(ISERROR(SEARCH("qwe",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:X25">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
+      <formula>NOT(ISERROR(SEARCH("1",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Y4" r:id="rId1"/>
+    <hyperlink ref="Y5" r:id="rId2"/>
+    <hyperlink ref="Y7" r:id="rId3"/>
+    <hyperlink ref="Y8" r:id="rId4"/>
+    <hyperlink ref="Y9" r:id="rId5"/>
+    <hyperlink ref="Y10" r:id="rId6"/>
+    <hyperlink ref="Y11" r:id="rId7"/>
+    <hyperlink ref="Y6" r:id="rId8"/>
+    <hyperlink ref="Y12" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
+        <v>43382</v>
+      </c>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
+        <v>43390</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
+        <v>43396</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
+        <v>43410</v>
+      </c>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
+        <v>43418</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
+        <v>43424</v>
+      </c>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
+        <v>43438</v>
+      </c>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
+        <v>43446</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
+        <v>43452</v>
+      </c>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
+        <v>43460</v>
+      </c>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1355,24 +2378,18 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1392,24 +2409,18 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1429,24 +2440,18 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1466,24 +2471,18 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1503,24 +2502,18 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1540,24 +2533,18 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y10" s="40"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1577,19 +2564,17 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y11" s="40"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1610,17 +2595,17 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1641,17 +2626,17 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1672,17 +2657,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1703,17 +2688,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1734,17 +2719,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1765,17 +2750,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1796,17 +2781,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1827,17 +2812,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1858,17 +2843,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1889,17 +2874,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1920,17 +2905,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1951,17 +2936,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1982,17 +2967,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2013,978 +2998,56 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y7:AA7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E4:E11">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
-      <formula>NOT(ISERROR(SEARCH("qwe",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:X25">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="1">
-      <formula>NOT(ISERROR(SEARCH("1",E4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="Y4" r:id="rId1" xr:uid="{9C31F587-DD46-4B2A-BB42-9202720A78D0}"/>
-    <hyperlink ref="Y5" r:id="rId2" xr:uid="{1BAC8BAF-6B18-4BC4-831A-5F436D695635}"/>
-    <hyperlink ref="Y7" r:id="rId3" xr:uid="{F3993815-70B9-4DBF-941D-58711291B499}"/>
-    <hyperlink ref="Y8" r:id="rId4" xr:uid="{CC06FEDC-F1C2-4922-BCA4-7FB5A8930F57}"/>
-    <hyperlink ref="Y9" r:id="rId5" xr:uid="{BC7A1EA5-AA6B-4DEC-AF37-86620DB3E48A}"/>
-    <hyperlink ref="Y10" r:id="rId6" xr:uid="{DE65151A-824D-41FC-9A3E-388A8A5A471D}"/>
-    <hyperlink ref="Y11" r:id="rId7" xr:uid="{FAFC094B-82BC-4C19-A65E-A9E5F9569B03}"/>
-    <hyperlink ref="Y6" r:id="rId8" xr:uid="{F7F7E1A3-C2E8-423D-82FC-E00BA00BEA42}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09F61E9-BD08-4D0B-A7D9-1D667F93113E}">
-  <dimension ref="A1:AA25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
-        <v>43382</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
-        <v>43390</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
-        <v>43396</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
-        <v>43410</v>
-      </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
-        <v>43418</v>
-      </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
-        <v>43424</v>
-      </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
-        <v>43438</v>
-      </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
-        <v>43446</v>
-      </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
-        <v>43452</v>
-      </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
-        <v>43460</v>
-      </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>13</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>19</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>21</v>
-      </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>22</v>
-      </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3001,50 +3064,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -620,6 +620,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,6 +728,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -637,114 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,7 +1094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,114 +1118,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="46">
         <v>43376</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>43382</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43">
         <v>43404</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43">
         <v>43410</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>43432</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43">
         <v>43438</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1286,19 +1286,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1321,21 +1321,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1360,21 +1360,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -1399,21 +1399,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="56" t="s">
+      <c r="Y6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1438,21 +1438,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1477,25 +1477,27 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
@@ -1516,21 +1518,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1553,21 +1555,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1592,21 +1594,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1629,21 +1631,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1666,17 +1668,17 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1697,17 +1699,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1728,17 +1730,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1759,17 +1761,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1790,17 +1792,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1821,17 +1823,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1852,17 +1854,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1883,17 +1885,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1914,17 +1916,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1945,17 +1947,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1976,17 +1978,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2007,17 +2009,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2038,12 +2040,63 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="52"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
@@ -2060,57 +2113,6 @@
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2148,114 +2150,114 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="46">
         <v>43382</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>43390</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43">
         <v>43410</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43">
         <v>43418</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>43438</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43">
         <v>43446</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2316,17 +2318,17 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2347,17 +2349,17 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2378,17 +2380,17 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2409,17 +2411,17 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2440,17 +2442,17 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2471,17 +2473,17 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="6"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2502,17 +2504,17 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="6"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2533,17 +2535,17 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2564,17 +2566,17 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2595,17 +2597,17 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2626,17 +2628,17 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2657,17 +2659,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2688,17 +2690,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2719,17 +2721,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2750,17 +2752,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2781,17 +2783,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2812,17 +2814,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2843,17 +2845,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2874,17 +2876,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2905,17 +2907,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2936,17 +2938,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2967,17 +2969,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2998,56 +3000,19 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="52"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3064,13 +3029,50 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FA61F93-F49C-435F-BC2F-B703FCBEE4A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
     <sheet name="САПР - 1.1п" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Студент</t>
   </si>
@@ -122,13 +128,67 @@
   </si>
   <si>
     <t>Гнеушев В. А.</t>
+  </si>
+  <si>
+    <t>Анохин А. О.</t>
+  </si>
+  <si>
+    <t>maythe4bewyou@gmail.com</t>
+  </si>
+  <si>
+    <t>Волощук М. А.</t>
+  </si>
+  <si>
+    <t>mariya.voloshchuk96@gmail.com</t>
+  </si>
+  <si>
+    <t>Кветкин В. В.</t>
+  </si>
+  <si>
+    <t>vlad.kvetkin@yandex.ru</t>
+  </si>
+  <si>
+    <t>Марков А. К.</t>
+  </si>
+  <si>
+    <t>anmark@list.ru</t>
+  </si>
+  <si>
+    <t>Серов А. Ю.</t>
+  </si>
+  <si>
+    <t>NipponGaijin</t>
+  </si>
+  <si>
+    <t>Воронцова А. А.</t>
+  </si>
+  <si>
+    <t>aleksandra19963@mail.ru</t>
+  </si>
+  <si>
+    <t>Верещак Г. А.</t>
+  </si>
+  <si>
+    <t>grigory937@gmail.com</t>
+  </si>
+  <si>
+    <t>Немцев М. А.</t>
+  </si>
+  <si>
+    <t>mikenem@yandex.ru</t>
+  </si>
+  <si>
+    <t>Силантьев П. С.</t>
+  </si>
+  <si>
+    <t>redfire13qze@mail.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +680,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,102 +805,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1094,21 +1154,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1117,115 +1177,115 @@
     <col min="26" max="27" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43376</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43382</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43404</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43410</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43432</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43438</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1286,19 +1346,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1321,21 +1381,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1360,21 +1420,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -1399,21 +1459,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1438,21 +1498,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1477,21 +1537,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1518,21 +1578,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29" t="s">
+      <c r="Y9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1555,21 +1615,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29" t="s">
+      <c r="Y10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1594,21 +1654,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29" t="s">
+      <c r="Y11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1631,22 +1691,24 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>1</v>
@@ -1668,17 +1730,17 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1699,17 +1761,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1730,17 +1792,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1761,17 +1823,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1792,17 +1854,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1823,17 +1885,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1854,17 +1916,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1885,17 +1947,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1916,17 +1978,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1947,17 +2009,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1978,17 +2040,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2009,17 +2071,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2040,42 +2102,33 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
@@ -2092,27 +2145,36 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2125,139 +2187,144 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Y4" r:id="rId1"/>
-    <hyperlink ref="Y5" r:id="rId2"/>
-    <hyperlink ref="Y7" r:id="rId3"/>
-    <hyperlink ref="Y8" r:id="rId4"/>
-    <hyperlink ref="Y9" r:id="rId5"/>
-    <hyperlink ref="Y10" r:id="rId6"/>
-    <hyperlink ref="Y11" r:id="rId7"/>
-    <hyperlink ref="Y6" r:id="rId8"/>
-    <hyperlink ref="Y12" r:id="rId9"/>
+    <hyperlink ref="Y4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Y5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Y7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Y8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Y9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Y10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Y11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Y6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Y12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43382</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43390</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43410</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43418</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43438</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43446</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2318,18 +2385,22 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -2349,18 +2420,24 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="Y4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2380,18 +2457,24 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="Y5" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2411,18 +2494,24 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="Y6" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2442,18 +2531,24 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="Y7" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2473,18 +2568,24 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="Y8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2504,18 +2605,24 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="Y9" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2535,18 +2642,24 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Y10" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2566,18 +2679,24 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="Y11" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2597,17 +2716,19 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="Y12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2628,17 +2749,17 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2659,17 +2780,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2690,17 +2811,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2721,17 +2842,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2752,17 +2873,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2783,17 +2904,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2814,17 +2935,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2845,17 +2966,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2876,17 +2997,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2907,17 +3028,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2938,17 +3059,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2969,17 +3090,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3000,19 +3121,56 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3029,50 +3187,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">
@@ -3084,6 +3205,16 @@
       <formula>NOT(ISERROR(SEARCH("1",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Y4" r:id="rId1" xr:uid="{0C16062F-239C-4D76-AC74-0B7AD6D3B00F}"/>
+    <hyperlink ref="Y5" r:id="rId2" xr:uid="{F0583755-7DB1-47A8-91F7-80DC4BF12743}"/>
+    <hyperlink ref="Y6" r:id="rId3" xr:uid="{3CFCF9CC-F61E-4C11-995F-E2E9A3F4141C}"/>
+    <hyperlink ref="Y7" r:id="rId4" xr:uid="{0E7E7C0D-F01B-401D-AA20-11E63611EDBF}"/>
+    <hyperlink ref="Y9" r:id="rId5" xr:uid="{658F2475-215C-4472-A39D-83BD2DB94269}"/>
+    <hyperlink ref="Y10" r:id="rId6" xr:uid="{BF3EC00F-7A19-4ED7-B707-F7A0F3139DEC}"/>
+    <hyperlink ref="Y11" r:id="rId7" xr:uid="{55A07693-419C-4D7F-BFC7-5345A0CB6331}"/>
+    <hyperlink ref="Y12" r:id="rId8" xr:uid="{9B0F60A0-8F93-4549-9BB6-37FAE572432F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4FA61F93-F49C-435F-BC2F-B703FCBEE4A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0C8AC2A-E43F-4B46-8EAD-BA1C84A0B8D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Студент</t>
   </si>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>redfire13qze@mail.ru</t>
+  </si>
+  <si>
+    <t>Беззубцев И. А.</t>
+  </si>
+  <si>
+    <t>bezzubtsev.ivan@gmail.com</t>
+  </si>
+  <si>
+    <t>Харитонов А. А.</t>
+  </si>
+  <si>
+    <t>haritonov.tolik@mail.ru</t>
   </si>
 </sst>
 </file>
@@ -680,6 +692,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,6 +800,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -697,114 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -960,7 +972,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1178,114 +1190,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="46">
         <v>43376</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>43382</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43">
         <v>43404</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43">
         <v>43410</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>43432</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43">
         <v>43438</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1346,19 +1358,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1381,21 +1393,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1420,21 +1432,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -1459,21 +1471,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="55" t="s">
+      <c r="Y6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1498,21 +1510,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1537,21 +1549,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1578,21 +1590,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1615,21 +1627,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1654,21 +1666,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1691,21 +1703,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -1730,17 +1742,17 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1761,17 +1773,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1792,17 +1804,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1823,17 +1835,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1854,17 +1866,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1885,17 +1897,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1916,17 +1928,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1947,17 +1959,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1978,17 +1990,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2009,17 +2021,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2040,17 +2052,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2071,17 +2083,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2102,12 +2114,63 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
@@ -2124,57 +2187,6 @@
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2206,7 +2218,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="Y13" sqref="Y13:AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,114 +2229,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="46">
         <v>43382</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>43390</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43">
         <v>43410</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43">
         <v>43418</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>43438</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43">
         <v>43446</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2385,19 +2397,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2420,26 +2432,28 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2457,21 +2471,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2494,26 +2508,28 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="55" t="s">
+      <c r="Y6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -2531,21 +2547,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -2568,21 +2584,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -2605,26 +2621,28 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2642,26 +2660,28 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2679,21 +2699,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
@@ -2716,22 +2736,26 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2749,20 +2773,26 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Y13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2780,17 +2810,19 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Y14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2811,17 +2843,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2842,17 +2874,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2873,17 +2905,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2904,17 +2936,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2935,17 +2967,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2966,17 +2998,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2997,17 +3029,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3028,17 +3060,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3059,17 +3091,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3090,17 +3122,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3121,56 +3153,19 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3187,13 +3182,50 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">
@@ -3214,6 +3246,8 @@
     <hyperlink ref="Y10" r:id="rId6" xr:uid="{BF3EC00F-7A19-4ED7-B707-F7A0F3139DEC}"/>
     <hyperlink ref="Y11" r:id="rId7" xr:uid="{55A07693-419C-4D7F-BFC7-5345A0CB6331}"/>
     <hyperlink ref="Y12" r:id="rId8" xr:uid="{9B0F60A0-8F93-4549-9BB6-37FAE572432F}"/>
+    <hyperlink ref="Y13" r:id="rId9" xr:uid="{028677E3-3B44-4699-8CFB-91F0DEB6BB1A}"/>
+    <hyperlink ref="Y14" r:id="rId10" xr:uid="{D36DD452-C034-4219-8A4C-10C65A9BBA3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C0C8AC2A-E43F-4B46-8EAD-BA1C84A0B8D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2366DDE-1832-4D05-86DE-73183C36D23B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Студент</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>haritonov.tolik@mail.ru</t>
+  </si>
+  <si>
+    <t>Петраевский В. А.</t>
   </si>
 </sst>
 </file>
@@ -692,6 +695,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,102 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1177,7 +1180,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,114 +1193,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43376</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43382</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43404</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43410</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43432</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43438</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1358,19 +1361,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1393,21 +1396,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1416,7 +1419,9 @@
         <v>1</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1432,21 +1437,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -1455,7 +1460,9 @@
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1471,21 +1478,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1510,21 +1517,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1533,7 +1540,9 @@
         <v>1</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1549,21 +1558,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1590,28 +1599,30 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29" t="s">
+      <c r="Y9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1627,21 +1638,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29" t="s">
+      <c r="Y10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1650,7 +1661,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1666,21 +1679,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29" t="s">
+      <c r="Y11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1703,21 +1716,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -1726,7 +1739,9 @@
         <v>1</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1742,22 +1757,26 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1773,17 +1792,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1804,17 +1823,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1835,17 +1854,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1866,17 +1885,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1897,17 +1916,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1928,17 +1947,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1959,17 +1978,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1990,17 +2009,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2021,17 +2040,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2052,17 +2071,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2083,17 +2102,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2114,42 +2133,33 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
@@ -2166,27 +2176,36 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2218,7 +2237,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:AA14"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,114 +2248,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43382</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43390</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43410</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43418</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43438</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43446</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2397,26 +2416,28 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2432,21 +2453,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -2455,7 +2476,9 @@
         <v>1</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2471,21 +2494,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2508,21 +2531,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -2531,7 +2554,9 @@
         <v>1</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -2547,28 +2572,30 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -2584,21 +2611,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -2621,21 +2648,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29" t="s">
+      <c r="Y9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -2660,21 +2687,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29" t="s">
+      <c r="Y10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -2683,7 +2710,9 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -2699,28 +2728,30 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29" t="s">
+      <c r="Y11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -2736,21 +2767,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2773,21 +2804,21 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="29" t="s">
+      <c r="Y13" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2810,19 +2841,19 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2843,17 +2874,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2874,17 +2905,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2905,17 +2936,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2936,17 +2967,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2967,17 +2998,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -2998,17 +3029,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3029,17 +3060,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3060,17 +3091,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3091,17 +3122,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3122,17 +3153,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3153,19 +3184,56 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3182,50 +3250,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Папка поручика Санёкиса\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B2366DDE-1832-4D05-86DE-73183C36D23B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BEF896E6-85F1-4778-8F81-B3FEBA0C6FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
@@ -695,6 +695,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,6 +803,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -712,114 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,114 +1193,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="46">
         <v>43376</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>43382</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43">
         <v>43404</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43">
         <v>43410</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>43432</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43">
         <v>43438</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1361,19 +1361,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1382,7 +1382,9 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -1396,21 +1398,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1423,7 +1425,9 @@
         <v>1</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -1437,21 +1441,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -1464,7 +1468,9 @@
         <v>1</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1478,21 +1484,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="55" t="s">
+      <c r="Y6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1503,7 +1509,9 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1517,21 +1525,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1544,7 +1552,9 @@
         <v>1</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -1558,21 +1568,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1585,7 +1595,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
@@ -1599,21 +1611,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1624,7 +1636,9 @@
         <v>1</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -1638,21 +1652,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1679,21 +1693,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1716,21 +1730,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -1743,7 +1757,9 @@
         <v>1</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
@@ -1757,19 +1773,19 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1792,17 +1808,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1823,17 +1839,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1854,17 +1870,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1885,17 +1901,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1916,17 +1932,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1947,17 +1963,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1978,17 +1994,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2009,17 +2025,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2040,17 +2056,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2071,17 +2087,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2102,17 +2118,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2133,12 +2149,63 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
@@ -2155,57 +2222,6 @@
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2236,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -2248,114 +2264,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="42"/>
+      <c r="S1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="46">
         <v>43382</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43">
         <v>43390</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="43"/>
+      <c r="K2" s="43">
         <v>43410</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43">
         <v>43418</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="43"/>
+      <c r="O2" s="43">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43">
         <v>43438</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43">
         <v>43446</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="43"/>
+      <c r="U2" s="43">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="43"/>
+      <c r="W2" s="43">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2416,19 +2432,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2453,21 +2469,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="38"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -2494,21 +2510,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2531,21 +2547,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="55" t="s">
+      <c r="Y6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="25"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -2572,21 +2588,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="Y7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="28"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -2611,21 +2627,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="Y8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -2648,21 +2664,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="Y9" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="28"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -2687,21 +2703,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="Y10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="28"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -2728,21 +2744,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="Y11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
@@ -2767,21 +2783,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="Y12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2804,21 +2820,21 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="40" t="s">
+      <c r="Y13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2841,19 +2857,19 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="40" t="s">
+      <c r="Y14" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2874,17 +2890,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2905,17 +2921,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2936,17 +2952,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="28"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2967,17 +2983,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="28"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2998,17 +3014,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="28"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3029,17 +3045,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="28"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3060,17 +3076,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="28"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3091,17 +3107,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="28"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3122,17 +3138,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="28"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3153,17 +3169,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="28"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3184,56 +3200,19 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3250,13 +3229,50 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Папка поручика Санёкиса\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BEF896E6-85F1-4778-8F81-B3FEBA0C6FD1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92365625-9718-4DB1-87F6-E9F75BF17A2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
@@ -695,6 +695,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -724,102 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,114 +1193,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43376</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43382</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43404</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43410</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43432</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43438</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1361,19 +1361,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -1398,21 +1398,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -1429,7 +1429,9 @@
         <v>1</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -1441,21 +1443,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -1472,7 +1474,9 @@
         <v>1</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -1484,21 +1488,21 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -1513,7 +1517,9 @@
         <v>1</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="12">
+        <v>1</v>
+      </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -1525,21 +1531,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -1568,21 +1574,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1599,7 +1605,9 @@
         <v>1</v>
       </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1611,21 +1619,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29" t="s">
+      <c r="Y9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -1640,7 +1648,9 @@
         <v>1</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12">
+        <v>1</v>
+      </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -1652,21 +1662,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29" t="s">
+      <c r="Y10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1681,7 +1691,9 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="12">
+        <v>1</v>
+      </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -1693,21 +1705,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29" t="s">
+      <c r="Y11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1730,25 +1742,27 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
@@ -1761,7 +1775,9 @@
         <v>1</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="12">
+        <v>1</v>
+      </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -1773,19 +1789,19 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1808,17 +1824,17 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1839,17 +1855,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1870,17 +1886,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1901,17 +1917,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1932,17 +1948,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1963,17 +1979,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1994,17 +2010,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2025,17 +2041,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -2056,17 +2072,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2087,17 +2103,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2118,17 +2134,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -2149,42 +2165,33 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
@@ -2201,27 +2208,36 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2252,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,114 +2280,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
+      <c r="A1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="47" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="30" t="s">
+      <c r="X1" s="46"/>
+      <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="46">
+      <c r="A2" s="44"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="48">
         <v>43382</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26">
         <v>43390</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26">
         <v>43396</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26">
         <v>43410</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26">
         <v>43418</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26">
         <v>43424</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26">
         <v>43438</v>
       </c>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43">
+      <c r="R2" s="26"/>
+      <c r="S2" s="26">
         <v>43446</v>
       </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26">
         <v>43452</v>
       </c>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26">
         <v>43460</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="35"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="36"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2432,19 +2448,19 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
@@ -2455,7 +2471,9 @@
         <v>1</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -2469,21 +2487,21 @@
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -2496,7 +2514,9 @@
         <v>1</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
@@ -2510,21 +2530,21 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="28"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="42"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -2533,7 +2553,9 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2547,25 +2569,27 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="15"/>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="25"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="57"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
@@ -2574,7 +2598,9 @@
         <v>1</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -2588,21 +2614,21 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="15"/>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="28"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="42"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
@@ -2613,7 +2639,9 @@
         <v>1</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -2627,21 +2655,21 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="15"/>
-      <c r="Y8" s="29" t="s">
+      <c r="Y8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="28"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="42"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -2664,21 +2692,21 @@
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="15"/>
-      <c r="Y9" s="29" t="s">
+      <c r="Y9" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="28"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="42"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -2689,7 +2717,9 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -2703,21 +2733,21 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="15"/>
-      <c r="Y10" s="29" t="s">
+      <c r="Y10" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="28"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="42"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -2744,21 +2774,21 @@
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="15"/>
-      <c r="Y11" s="29" t="s">
+      <c r="Y11" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="28"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="42"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
@@ -2769,7 +2799,9 @@
         <v>1</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -2783,21 +2815,21 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="15"/>
-      <c r="Y12" s="29" t="s">
+      <c r="Y12" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="28"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="42"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="7"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2820,21 +2852,21 @@
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="29" t="s">
+      <c r="Y13" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="28"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="42"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="7"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2857,19 +2889,19 @@
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="15"/>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="28"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="42"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2890,17 +2922,17 @@
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="42"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2921,17 +2953,17 @@
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
       <c r="X16" s="15"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="28"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="42"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2952,17 +2984,17 @@
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="28"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="42"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2983,17 +3015,17 @@
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
       <c r="X18" s="15"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="28"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3014,17 +3046,17 @@
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="15"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="28"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3045,17 +3077,17 @@
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="15"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="28"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="42"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3076,17 +3108,17 @@
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
       <c r="X21" s="15"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="28"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="42"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3107,17 +3139,17 @@
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
       <c r="X22" s="15"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="28"/>
+      <c r="Y22" s="58"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="42"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3138,17 +3170,17 @@
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="15"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="28"/>
+      <c r="Y23" s="58"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3169,17 +3201,17 @@
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="28"/>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="42"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="13"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3200,19 +3232,56 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3229,50 +3298,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{92365625-9718-4DB1-87F6-E9F75BF17A2F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{643161BE-87BD-4AAC-BBD4-17BCFCF2791B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
     <sheet name="САПР - 1.1п" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Студент</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Петраевский В. А.</t>
+  </si>
+  <si>
+    <t>столы</t>
   </si>
 </sst>
 </file>
@@ -222,12 +225,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="33">
@@ -645,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,9 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -695,6 +701,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,6 +809,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,113 +827,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1177,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,8 +1219,8 @@
     <col min="26" max="27" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -1201,106 +1228,106 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="41"/>
+      <c r="S1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
+      <c r="X1" s="43"/>
       <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="AA1" s="31"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="45">
         <v>43376</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42">
         <v>43382</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42">
         <v>43404</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42">
         <v>43410</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42">
         <v>43432</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42">
         <v>43438</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="42"/>
+      <c r="U2" s="42">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -1361,66 +1388,74 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="34"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="61"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="61"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3">
         <v>1</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="64"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
+      <c r="U4" s="64"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="W4" s="64"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="37"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
@@ -1433,35 +1468,37 @@
         <v>1</v>
       </c>
       <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="63"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="U5" s="63"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="W5" s="63"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
@@ -1478,40 +1515,44 @@
         <v>1</v>
       </c>
       <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="S6" s="63"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="U6" s="63"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="55" t="s">
+      <c r="W6" s="63"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="60"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2">
         <v>1</v>
@@ -1521,35 +1562,37 @@
         <v>1</v>
       </c>
       <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="63"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="27"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
@@ -1562,33 +1605,33 @@
         <v>1</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="W8" s="63"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="27"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
@@ -1598,8 +1641,10 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="60"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2">
         <v>1</v>
@@ -1609,36 +1654,38 @@
         <v>1</v>
       </c>
       <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="63"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="W9" s="63"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="60"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
         <v>1</v>
@@ -1652,31 +1699,31 @@
         <v>1</v>
       </c>
       <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="63"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="W10" s="63"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="27"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -1689,74 +1736,77 @@
         <v>1</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="2"/>
       <c r="M11" s="12">
         <v>1</v>
       </c>
       <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="63"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="63"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="W11" s="63"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>1</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="12"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="63"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="U12" s="63"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="W12" s="63"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="27"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="7">
         <v>1</v>
       </c>
@@ -1766,7 +1816,9 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
@@ -1779,398 +1831,452 @@
         <v>1</v>
       </c>
       <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="63"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="63"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W13" s="63"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="12"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="63"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="63"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W14" s="63"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="27"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="S15" s="63"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W15" s="63"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="27"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="63"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="63"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="12"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="63"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="63"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="U18" s="63"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="63"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="63"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="U19" s="63"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="27"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="12"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="63"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="63"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="S20" s="63"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="U20" s="63"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="63"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="63"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="S21" s="63"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="U21" s="63"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="27"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="63"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="S22" s="63"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="U22" s="63"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="63"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="U23" s="63"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="U24" s="63"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="27"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="62"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="62"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="62"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
+      <c r="U25" s="62"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
@@ -2187,57 +2293,6 @@
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2269,7 +2324,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,7 +2335,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -2288,106 +2343,106 @@
       </c>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="N1" s="41"/>
+      <c r="O1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28" t="s">
+      <c r="R1" s="41"/>
+      <c r="S1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="V1" s="41"/>
+      <c r="W1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="46"/>
+      <c r="X1" s="43"/>
       <c r="Y1" s="29" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="30"/>
-      <c r="AA1" s="35"/>
+      <c r="AA1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="48">
+      <c r="A2" s="39"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="45">
         <v>43382</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42">
         <v>43390</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26">
+      <c r="H2" s="42"/>
+      <c r="I2" s="42">
         <v>43396</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42">
         <v>43410</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42">
         <v>43418</v>
       </c>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42">
         <v>43424</v>
       </c>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26">
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42">
         <v>43438</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26">
+      <c r="R2" s="42"/>
+      <c r="S2" s="42">
         <v>43446</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26">
+      <c r="T2" s="42"/>
+      <c r="U2" s="42">
         <v>43452</v>
       </c>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26">
+      <c r="V2" s="42"/>
+      <c r="W2" s="42">
         <v>43460</v>
       </c>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="36"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="34"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
@@ -2448,24 +2503,24 @@
       <c r="X3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="36"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="34"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
         <v>1</v>
@@ -2475,33 +2530,33 @@
         <v>1</v>
       </c>
       <c r="L4" s="3"/>
-      <c r="M4" s="11"/>
+      <c r="M4" s="64"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="64"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="S4" s="64"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
+      <c r="U4" s="64"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="37" t="s">
+      <c r="W4" s="64"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -2518,72 +2573,74 @@
         <v>1</v>
       </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="12"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
+      <c r="Q5" s="63"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="S5" s="63"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
+      <c r="U5" s="63"/>
       <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="40" t="s">
+      <c r="W5" s="63"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="42"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2">
         <v>1</v>
       </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="12"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
+      <c r="Q6" s="63"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="S6" s="63"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="U6" s="63"/>
       <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="55" t="s">
+      <c r="W6" s="63"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="57"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="24"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -2602,38 +2659,40 @@
         <v>1</v>
       </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="12"/>
+      <c r="M7" s="63"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="63"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="63"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="40" t="s">
+      <c r="W7" s="63"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="42"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="60"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
         <v>1</v>
@@ -2643,70 +2702,70 @@
         <v>1</v>
       </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="12"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="Q8" s="63"/>
       <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="S8" s="63"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="40" t="s">
+      <c r="W8" s="63"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="12"/>
+      <c r="M9" s="63"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="63"/>
       <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="S9" s="63"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="40" t="s">
+      <c r="W9" s="63"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="6">
         <v>1</v>
       </c>
@@ -2715,43 +2774,45 @@
         <v>1</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
         <v>1</v>
       </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="12"/>
+      <c r="M10" s="63"/>
       <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="63"/>
       <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="63"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="40" t="s">
+      <c r="W10" s="63"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="42"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
       <c r="G11" s="2">
         <v>1</v>
       </c>
@@ -2760,40 +2821,40 @@
         <v>1</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="63"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="63"/>
       <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="S11" s="63"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="40" t="s">
+      <c r="W11" s="63"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>1</v>
@@ -2803,485 +2864,448 @@
         <v>1</v>
       </c>
       <c r="L12" s="2"/>
-      <c r="M12" s="12"/>
+      <c r="M12" s="63"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="63"/>
       <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="S12" s="63"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
+      <c r="U12" s="63"/>
       <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="40" t="s">
+      <c r="W12" s="63"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="27"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
         <v>1</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="12"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="63"/>
       <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="63"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="40" t="s">
+      <c r="W13" s="63"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="42"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="27"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="60"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="12"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="Q14" s="63"/>
       <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="S14" s="63"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="40" t="s">
+      <c r="W14" s="63"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="42"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="12"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="63"/>
       <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="S15" s="63"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="42"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="27"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="7"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="12"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="Q16" s="63"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="63"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="42"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="27"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="12"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="Q17" s="63"/>
       <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="S17" s="63"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
+      <c r="U17" s="63"/>
       <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="42"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="27"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="12"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
+      <c r="O18" s="63"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="Q18" s="63"/>
       <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="S18" s="63"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
+      <c r="U18" s="63"/>
       <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="42"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="27"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="7"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="12"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
+      <c r="O19" s="63"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="Q19" s="63"/>
       <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="63"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
+      <c r="U19" s="63"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="27"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="12"/>
+      <c r="M20" s="63"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="O20" s="63"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="Q20" s="63"/>
       <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="S20" s="63"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
+      <c r="U20" s="63"/>
       <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="42"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="27"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="60"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="O21" s="63"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="Q21" s="63"/>
       <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="S21" s="63"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
+      <c r="U21" s="63"/>
       <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="42"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="27"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="63"/>
       <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="O22" s="63"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="Q22" s="63"/>
       <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="S22" s="63"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
+      <c r="U22" s="63"/>
       <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="27"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="60"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="63"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="Q23" s="63"/>
       <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="S23" s="63"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="U23" s="63"/>
       <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="27"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="12"/>
+      <c r="M24" s="63"/>
       <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="Q24" s="63"/>
       <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
+      <c r="S24" s="63"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="U24" s="63"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="58"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="27"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="13"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="G25" s="62"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="62"/>
       <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="62"/>
       <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="Q25" s="62"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
+      <c r="S25" s="62"/>
       <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
+      <c r="U25" s="62"/>
       <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="50"/>
-      <c r="AA25" s="51"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3298,13 +3322,50 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB11AE9E-4EE6-4B89-946B-2E5AF4868650}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5229C400-25DD-4B53-9D63-18AC850C5B7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
     <sheet name="САПР - 1.1п" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -208,13 +203,16 @@
   </si>
   <si>
     <t>haritonov.tolik@mail.ru</t>
+  </si>
+  <si>
+    <t>Ли Д. О.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +728,105 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,6 +836,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -747,114 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -916,9 +914,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -956,7 +954,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1062,7 +1060,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1214,11 +1212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1227,115 +1225,115 @@
     <col min="26" max="27" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="41"/>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="50"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="54">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="52">
         <v>43376</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49">
         <v>43382</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49">
         <v>43396</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49">
         <v>43404</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49">
         <v>43410</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49">
         <v>43424</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49">
         <v>43432</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49">
         <v>43438</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49">
         <v>43452</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32">
+      <c r="V2" s="49"/>
+      <c r="W2" s="49">
         <v>43460</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="42"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1396,19 +1394,19 @@
       <c r="X3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="42"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="41"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -1437,21 +1435,21 @@
       <c r="V4" s="5"/>
       <c r="W4" s="22"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="45"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -1476,7 +1474,9 @@
         <v>1</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="21"/>
+      <c r="O5" s="21">
+        <v>1</v>
+      </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="21"/>
       <c r="R5" s="6"/>
@@ -1486,21 +1486,21 @@
       <c r="V5" s="6"/>
       <c r="W5" s="21"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="48"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -1523,7 +1523,9 @@
         <v>1</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="21"/>
+      <c r="O6" s="21">
+        <v>1</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="21"/>
       <c r="R6" s="6"/>
@@ -1533,21 +1535,21 @@
       <c r="V6" s="6"/>
       <c r="W6" s="21"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="61" t="s">
+      <c r="Y6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="63"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="31"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -1580,21 +1582,21 @@
       <c r="V7" s="6"/>
       <c r="W7" s="21"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="46" t="s">
+      <c r="Y7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="48"/>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="34"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -1625,21 +1627,21 @@
       <c r="V8" s="6"/>
       <c r="W8" s="21"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="46" t="s">
+      <c r="Y8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="48"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="34"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -1662,7 +1664,9 @@
         <v>1</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="21"/>
+      <c r="O9" s="21">
+        <v>1</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="21"/>
       <c r="R9" s="6"/>
@@ -1672,21 +1676,21 @@
       <c r="V9" s="6"/>
       <c r="W9" s="21"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="46" t="s">
+      <c r="Y9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="34"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -1707,7 +1711,9 @@
         <v>1</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="21"/>
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="21"/>
       <c r="R10" s="6"/>
@@ -1717,29 +1723,33 @@
       <c r="V10" s="6"/>
       <c r="W10" s="21"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="46" t="s">
+      <c r="Y10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="48"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
       <c r="G11" s="11">
         <v>1</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
       <c r="I11" s="11">
         <v>1</v>
       </c>
@@ -1750,7 +1760,9 @@
         <v>1</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="21"/>
+      <c r="O11" s="21">
+        <v>1</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="21"/>
       <c r="R11" s="6"/>
@@ -1760,24 +1772,24 @@
       <c r="V11" s="6"/>
       <c r="W11" s="21"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="46" t="s">
+      <c r="Y11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="48"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
       <c r="AB11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="16"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
@@ -1800,21 +1812,21 @@
       <c r="V12" s="6"/>
       <c r="W12" s="21"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="46" t="s">
+      <c r="Y12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="48"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
@@ -1839,7 +1851,9 @@
         <v>1</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="21"/>
+      <c r="O13" s="21">
+        <v>1</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="6"/>
@@ -1849,22 +1863,22 @@
       <c r="V13" s="6"/>
       <c r="W13" s="21"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="48"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="16"/>
       <c r="F14" s="11"/>
       <c r="G14" s="18"/>
@@ -1887,19 +1901,19 @@
       <c r="V14" s="6"/>
       <c r="W14" s="21"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="48"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="34"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="16"/>
       <c r="F15" s="11">
         <v>1</v>
@@ -1926,28 +1940,36 @@
       <c r="V15" s="6"/>
       <c r="W15" s="21"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="48"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="11"/>
       <c r="K16" s="18"/>
       <c r="L16" s="11"/>
       <c r="M16" s="21"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="21"/>
+      <c r="O16" s="21">
+        <v>1</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="6"/>
@@ -1957,17 +1979,17 @@
       <c r="V16" s="6"/>
       <c r="W16" s="21"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="48"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="16"/>
       <c r="F17" s="11"/>
       <c r="G17" s="18"/>
@@ -1988,17 +2010,17 @@
       <c r="V17" s="6"/>
       <c r="W17" s="21"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="34"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="16"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
@@ -2019,17 +2041,17 @@
       <c r="V18" s="6"/>
       <c r="W18" s="21"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="34"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
       <c r="G19" s="18"/>
@@ -2050,17 +2072,17 @@
       <c r="V19" s="6"/>
       <c r="W19" s="21"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="34"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
       <c r="G20" s="18"/>
@@ -2081,17 +2103,17 @@
       <c r="V20" s="6"/>
       <c r="W20" s="21"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="34"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="16"/>
       <c r="F21" s="11"/>
       <c r="G21" s="18"/>
@@ -2112,17 +2134,17 @@
       <c r="V21" s="6"/>
       <c r="W21" s="21"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="34"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="16"/>
       <c r="F22" s="11"/>
       <c r="G22" s="18"/>
@@ -2143,17 +2165,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="21"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="34"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
@@ -2174,17 +2196,17 @@
       <c r="V23" s="6"/>
       <c r="W23" s="21"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="48"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="34"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11"/>
       <c r="G24" s="18"/>
@@ -2205,17 +2227,17 @@
       <c r="V24" s="6"/>
       <c r="W24" s="21"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="48"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="34"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="17"/>
       <c r="F25" s="13"/>
       <c r="G25" s="20"/>
@@ -2236,12 +2258,63 @@
       <c r="V25" s="13"/>
       <c r="W25" s="20"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
@@ -2258,57 +2331,6 @@
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2339,126 +2361,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="25" max="25" width="10.85546875" customWidth="1"/>
     <col min="26" max="26" width="10.5703125" customWidth="1"/>
     <col min="27" max="27" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34" t="s">
+      <c r="T1" s="48"/>
+      <c r="U1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="35" t="s">
+      <c r="X1" s="50"/>
+      <c r="Y1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="41"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="50"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="54">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="38"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="52">
         <v>43382</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="F2" s="49"/>
+      <c r="G2" s="49">
         <v>43390</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49">
         <v>43396</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49">
         <v>43410</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49">
         <v>43418</v>
       </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49">
         <v>43424</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32">
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49">
         <v>43438</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32">
+      <c r="R2" s="49"/>
+      <c r="S2" s="49">
         <v>43446</v>
       </c>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49">
         <v>43452</v>
       </c>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32">
+      <c r="V2" s="49"/>
+      <c r="W2" s="49">
         <v>43460</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="42"/>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
@@ -2519,19 +2541,19 @@
       <c r="X3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="42"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="41"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -2560,21 +2582,21 @@
       <c r="V4" s="5"/>
       <c r="W4" s="22"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="45"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -2605,21 +2627,21 @@
       <c r="V5" s="6"/>
       <c r="W5" s="21"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="48"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -2646,21 +2668,21 @@
       <c r="V6" s="6"/>
       <c r="W6" s="21"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="61" t="s">
+      <c r="Y6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="63"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="31"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -2691,21 +2713,21 @@
       <c r="V7" s="6"/>
       <c r="W7" s="21"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="46" t="s">
+      <c r="Y7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="48"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="34"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -2736,21 +2758,21 @@
       <c r="V8" s="6"/>
       <c r="W8" s="21"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="46" t="s">
+      <c r="Y8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="48"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="34"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -2773,21 +2795,21 @@
       <c r="V9" s="6"/>
       <c r="W9" s="21"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="46" t="s">
+      <c r="Y9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="48"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="34"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -2816,21 +2838,21 @@
       <c r="V10" s="6"/>
       <c r="W10" s="21"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="46" t="s">
+      <c r="Y10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="48"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="34"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -2859,21 +2881,21 @@
       <c r="V11" s="6"/>
       <c r="W11" s="21"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="46" t="s">
+      <c r="Y11" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="48"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
@@ -2900,21 +2922,21 @@
       <c r="V12" s="6"/>
       <c r="W12" s="21"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="46" t="s">
+      <c r="Y12" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="48"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="34"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="16"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -2939,21 +2961,21 @@
       <c r="V13" s="6"/>
       <c r="W13" s="21"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="46" t="s">
+      <c r="Y13" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="48"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="16"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
@@ -2978,19 +3000,19 @@
       <c r="V14" s="6"/>
       <c r="W14" s="21"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="46" t="s">
+      <c r="Y14" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="48"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="34"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="16"/>
       <c r="F15" s="11"/>
       <c r="G15" s="18"/>
@@ -3011,17 +3033,17 @@
       <c r="V15" s="6"/>
       <c r="W15" s="21"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="48"/>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="34"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="16"/>
       <c r="F16" s="11"/>
       <c r="G16" s="18"/>
@@ -3042,17 +3064,17 @@
       <c r="V16" s="6"/>
       <c r="W16" s="21"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="48"/>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="16"/>
       <c r="F17" s="11"/>
       <c r="G17" s="18"/>
@@ -3073,17 +3095,17 @@
       <c r="V17" s="6"/>
       <c r="W17" s="21"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="34"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="16"/>
       <c r="F18" s="11"/>
       <c r="G18" s="18"/>
@@ -3104,17 +3126,17 @@
       <c r="V18" s="6"/>
       <c r="W18" s="21"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="48"/>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="34"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
       <c r="G19" s="18"/>
@@ -3135,17 +3157,17 @@
       <c r="V19" s="6"/>
       <c r="W19" s="21"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="34"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
       <c r="G20" s="18"/>
@@ -3166,17 +3188,17 @@
       <c r="V20" s="6"/>
       <c r="W20" s="21"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="48"/>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="34"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
       <c r="E21" s="16"/>
       <c r="F21" s="11"/>
       <c r="G21" s="18"/>
@@ -3197,17 +3219,17 @@
       <c r="V21" s="6"/>
       <c r="W21" s="21"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="48"/>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="34"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="16"/>
       <c r="F22" s="11"/>
       <c r="G22" s="18"/>
@@ -3228,17 +3250,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="21"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="48"/>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="34"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="16"/>
       <c r="F23" s="11"/>
       <c r="G23" s="18"/>
@@ -3259,17 +3281,17 @@
       <c r="V23" s="6"/>
       <c r="W23" s="21"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="48"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="34"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11"/>
       <c r="G24" s="18"/>
@@ -3290,17 +3312,17 @@
       <c r="V24" s="6"/>
       <c r="W24" s="21"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="48"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1">
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="34"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>22</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="17"/>
       <c r="F25" s="13"/>
       <c r="G25" s="20"/>
@@ -3321,56 +3343,19 @@
       <c r="V25" s="13"/>
       <c r="W25" s="20"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3387,13 +3372,50 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -5,28 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5229C400-25DD-4B53-9D63-18AC850C5B7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF77B7B0-6C57-45B7-99BB-1FDCBC451113}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
     <sheet name="САПР - 1.1п" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>№</t>
   </si>
@@ -139,6 +144,15 @@
     <t>Пшеничный А. С.</t>
   </si>
   <si>
+    <t>Ли Д. О.</t>
+  </si>
+  <si>
+    <t>Володина Д.А.</t>
+  </si>
+  <si>
+    <t>Корлякова Д. В.</t>
+  </si>
+  <si>
     <t>Анохин А. О.</t>
   </si>
   <si>
@@ -205,14 +219,26 @@
     <t>haritonov.tolik@mail.ru</t>
   </si>
   <si>
-    <t>Ли Д. О.</t>
+    <t>Дмитриев В. И.</t>
+  </si>
+  <si>
+    <t>Кузнецов И. Д.</t>
+  </si>
+  <si>
+    <t>Кузьменко Е. А.</t>
+  </si>
+  <si>
+    <t>Рагозин В. О.</t>
+  </si>
+  <si>
+    <t>Черкесов В. Н.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,8 +256,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +274,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,6 +740,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -707,25 +779,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,14 +843,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,103 +999,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,1041 +1404,1051 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="72"/>
+      <c r="Y1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="60"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="52">
+      <c r="A2" s="68"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="74">
         <v>43376</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71">
         <v>43382</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71">
         <v>43396</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71">
         <v>43404</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71">
         <v>43410</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49">
+      <c r="N2" s="71"/>
+      <c r="O2" s="71">
         <v>43424</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49">
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71">
         <v>43432</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71">
         <v>43438</v>
       </c>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49">
+      <c r="T2" s="71"/>
+      <c r="U2" s="71">
         <v>43452</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49">
+      <c r="V2" s="71"/>
+      <c r="W2" s="71">
         <v>43460</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="12" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="41"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="63"/>
+    </row>
+    <row r="4" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>1</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="15">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="42" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="34">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="29">
+        <v>1</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="44"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
+    </row>
+    <row r="5" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="21">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="35" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1</v>
+      </c>
+      <c r="I5" s="30">
+        <v>1</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="30">
+        <v>1</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="32">
+        <v>1</v>
+      </c>
+      <c r="N5" s="40"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="32">
+        <v>1</v>
+      </c>
+      <c r="R5" s="40"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="53"/>
+    </row>
+    <row r="6" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="21">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="29" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="27">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="30">
+        <v>1</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="30">
+        <v>1</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="32">
+        <v>1</v>
+      </c>
+      <c r="N6" s="40"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="32">
+        <v>1</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="31"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
+    </row>
+    <row r="7" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="35" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="27">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>1</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="30">
+        <v>1</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="32">
+        <v>1</v>
+      </c>
+      <c r="N7" s="40"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="34"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="53"/>
+    </row>
+    <row r="8" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="35" t="s">
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="27">
+        <v>1</v>
+      </c>
+      <c r="F8" s="39">
+        <v>1</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="30">
+        <v>1</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="34"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
+    </row>
+    <row r="9" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>6</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="21">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="35" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="27">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30">
+        <v>1</v>
+      </c>
+      <c r="H9" s="39">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="30">
+        <v>1</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="32">
+        <v>1</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="32">
+        <v>1</v>
+      </c>
+      <c r="R9" s="40"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="34"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
+    </row>
+    <row r="10" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>7</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11">
-        <v>1</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="21">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="35" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="27">
+        <v>1</v>
+      </c>
+      <c r="F10" s="39">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="30">
+        <v>1</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="30">
+        <v>1</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="32">
+        <v>1</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="32">
+        <v>1</v>
+      </c>
+      <c r="R10" s="40"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="53"/>
+    </row>
+    <row r="11" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>8</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="21">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="35" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="27">
+        <v>1</v>
+      </c>
+      <c r="F11" s="39">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="39">
+        <v>1</v>
+      </c>
+      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="32">
+        <v>1</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="32">
+        <v>1</v>
+      </c>
+      <c r="R11" s="40"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" t="s">
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="35" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="30">
+        <v>1</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="34"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
+    </row>
+    <row r="13" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="21">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="39">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
+        <v>1</v>
+      </c>
+      <c r="H13" s="39">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="30">
+        <v>1</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="32">
+        <v>1</v>
+      </c>
+      <c r="N13" s="40"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="32">
+        <v>1</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>11</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="34"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="30">
+        <v>1</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="53"/>
+    </row>
+    <row r="15" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>12</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="21">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="39">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="39">
+        <v>1</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="32">
+        <v>1</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="53"/>
+    </row>
+    <row r="16" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>13</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="21">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="B16" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="39">
+        <v>1</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="39">
+        <v>1</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="32">
+        <v>1</v>
+      </c>
+      <c r="R16" s="40"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="53"/>
+    </row>
+    <row r="17" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <v>14</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="34"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="B17" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="39">
+        <v>1</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
+    </row>
+    <row r="18" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>15</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="34"/>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="B18" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="39">
+        <v>1</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="39">
+        <v>1</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="53"/>
+    </row>
+    <row r="19" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>16</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="34"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="53"/>
+    </row>
+    <row r="20" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
         <v>17</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="34"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="53"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="21"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="21"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="21"/>
+      <c r="S21" s="32"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="21"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="21"/>
+      <c r="W21" s="32"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="34"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="21"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="21"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="21"/>
+      <c r="S22" s="32"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="21"/>
+      <c r="U22" s="32"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="21"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="34"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="21"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="21"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="21"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="21"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="21"/>
+      <c r="W23" s="15"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="34"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="56"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="21"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="21"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="21"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="21"/>
+      <c r="U24" s="15"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="21"/>
+      <c r="W24" s="15"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="34"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="56"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="20"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="14"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="25"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -2361,8 +2549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,979 +2561,995 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48" t="s">
+      <c r="P1" s="98"/>
+      <c r="Q1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48" t="s">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="36" t="s">
+      <c r="X1" s="72"/>
+      <c r="Y1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="60"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="52">
+      <c r="A2" s="68"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="74">
         <v>43382</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71">
         <v>43390</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71">
         <v>43396</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71">
         <v>43410</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71">
         <v>43418</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49">
+      <c r="N2" s="71"/>
+      <c r="O2" s="97">
         <v>43424</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49">
+      <c r="P2" s="97"/>
+      <c r="Q2" s="71">
         <v>43438</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71">
         <v>43446</v>
       </c>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49">
+      <c r="T2" s="71"/>
+      <c r="U2" s="71">
         <v>43452</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49">
+      <c r="V2" s="71"/>
+      <c r="W2" s="71">
         <v>43460</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="41"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="12" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="41"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="63"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="22">
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="16">
         <v>1</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="22"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="16"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="22"/>
+      <c r="S4" s="16"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="22"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="22"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="44"/>
+      <c r="Y4" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="93"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="21">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="15">
         <v>1</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="21"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="21"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="21"/>
+      <c r="U5" s="15"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="21"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="34"/>
+      <c r="Y5" s="90" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="56"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="21"/>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="21"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="21"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="6"/>
-      <c r="U6" s="21"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="21"/>
+      <c r="W6" s="15"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="31"/>
+      <c r="Y6" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="96"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="103"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="21"/>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="15"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="21"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="21"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="6"/>
-      <c r="U7" s="21"/>
+      <c r="U7" s="15"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="21"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="34"/>
+      <c r="Y7" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="56"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
+      <c r="B8" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11">
-        <v>1</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="21">
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="15">
         <v>1</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="21"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="21"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="6"/>
-      <c r="U8" s="21"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="21"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="34"/>
+      <c r="Y8" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="56"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="103"/>
+      <c r="D9" s="104"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="21"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="15"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="21"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="21"/>
+      <c r="U9" s="15"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="21"/>
+      <c r="W9" s="15"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="34"/>
+      <c r="Y9" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11">
-        <v>1</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="21">
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="15">
         <v>1</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="21"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="21"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="21"/>
+      <c r="U10" s="15"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="21"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="34"/>
+      <c r="Y10" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="56"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="21"/>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="21"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="21"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="6"/>
-      <c r="U11" s="21"/>
+      <c r="U11" s="15"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="21"/>
+      <c r="W11" s="15"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="34"/>
+      <c r="Y11" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="56"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
-        <v>1</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11">
-        <v>1</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="21"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="6"/>
-      <c r="S12" s="21"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="21"/>
+      <c r="U12" s="15"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="21"/>
+      <c r="W12" s="15"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="34"/>
+      <c r="Y12" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="56"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="21">
+      <c r="B13" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="15">
         <v>1</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="21"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="21"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="6"/>
-      <c r="U13" s="21"/>
+      <c r="U13" s="15"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="21"/>
+      <c r="W13" s="15"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="34"/>
+      <c r="Y13" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="56"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="21">
+      <c r="B14" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="15">
         <v>1</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="21"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="21"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="21"/>
+      <c r="U14" s="15"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="21"/>
+      <c r="W14" s="15"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="34"/>
+      <c r="Y14" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="56"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="21"/>
+      <c r="B15" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="15"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="21"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="21"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="21"/>
+      <c r="U15" s="15"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="21"/>
+      <c r="W15" s="15"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="34"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="56"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="21"/>
+      <c r="B16" s="102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="103"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="15"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="21"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="21"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="6"/>
-      <c r="U16" s="21"/>
+      <c r="U16" s="15"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="21"/>
+      <c r="W16" s="15"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="34"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="56"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="21"/>
+      <c r="B17" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="21"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="21"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="21"/>
+      <c r="U17" s="15"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="21"/>
+      <c r="W17" s="15"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="34"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="21"/>
+      <c r="B18" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="103"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="21"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="21"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="21"/>
+      <c r="U18" s="15"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="21"/>
+      <c r="W18" s="15"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="34"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="56"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="21"/>
+      <c r="B19" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="15"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="21"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="21"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="21"/>
+      <c r="U19" s="15"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="21"/>
+      <c r="W19" s="15"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="34"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="56"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="21"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="15"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="21"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="6"/>
-      <c r="S20" s="21"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="6"/>
-      <c r="U20" s="21"/>
+      <c r="U20" s="15"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="21"/>
+      <c r="W20" s="15"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="34"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="56"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="21"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="15"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="21"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="21"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="6"/>
-      <c r="U21" s="21"/>
+      <c r="U21" s="15"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="21"/>
+      <c r="W21" s="15"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="34"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="21"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="21"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="21"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="21"/>
+      <c r="U22" s="15"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="21"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="34"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="21"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="21"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="21"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="21"/>
+      <c r="U23" s="15"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="21"/>
+      <c r="W23" s="15"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="34"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="56"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="21"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="21"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="21"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="21"/>
+      <c r="U24" s="15"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="21"/>
+      <c r="W24" s="15"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="34"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="56"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="20"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="14"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="25"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -3440,5 +3644,6 @@
     <hyperlink ref="Y14" r:id="rId10" xr:uid="{D36DD452-C034-4219-8A4C-10C65A9BBA3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF77B7B0-6C57-45B7-99BB-1FDCBC451113}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54A9153F-00A8-4F5B-B719-C57ADB811B23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,10 @@
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
     <sheet name="САПР - 1.1п" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -834,6 +829,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,12 +964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -879,116 +973,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -998,39 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,7 +1386,7 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,114 +1399,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70" t="s">
+      <c r="V1" s="56"/>
+      <c r="W1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="58" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="60"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="63"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="74">
+      <c r="A2" s="72"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="76">
         <v>43376</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71">
+      <c r="F2" s="54"/>
+      <c r="G2" s="54">
         <v>43382</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54">
         <v>43396</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54">
         <v>43404</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54">
         <v>43410</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71">
+      <c r="N2" s="54"/>
+      <c r="O2" s="54">
         <v>43424</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54">
         <v>43432</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54">
         <v>43438</v>
       </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54">
         <v>43452</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54">
         <v>43460</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="63"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="64"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1572,19 +1567,19 @@
       <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="63"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="64"/>
     </row>
     <row r="4" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
@@ -1613,21 +1608,21 @@
       <c r="V4" s="35"/>
       <c r="W4" s="31"/>
       <c r="X4" s="36"/>
-      <c r="Y4" s="64" t="s">
+      <c r="Y4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="67"/>
     </row>
     <row r="5" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="27">
         <v>1</v>
       </c>
@@ -1658,27 +1653,29 @@
         <v>1</v>
       </c>
       <c r="R5" s="40"/>
-      <c r="S5" s="32"/>
+      <c r="S5" s="32">
+        <v>1</v>
+      </c>
       <c r="T5" s="40"/>
       <c r="U5" s="32"/>
       <c r="V5" s="40"/>
       <c r="W5" s="32"/>
       <c r="X5" s="41"/>
-      <c r="Y5" s="57" t="s">
+      <c r="Y5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="53"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="70"/>
     </row>
     <row r="6" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="27">
         <v>1</v>
       </c>
@@ -1707,27 +1704,29 @@
         <v>1</v>
       </c>
       <c r="R6" s="40"/>
-      <c r="S6" s="32"/>
+      <c r="S6" s="32">
+        <v>1</v>
+      </c>
       <c r="T6" s="40"/>
       <c r="U6" s="32"/>
       <c r="V6" s="40"/>
       <c r="W6" s="32"/>
       <c r="X6" s="41"/>
-      <c r="Y6" s="48" t="s">
+      <c r="Y6" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="50"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="85"/>
     </row>
     <row r="7" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>4</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="27">
         <v>1</v>
       </c>
@@ -1754,27 +1753,29 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="32"/>
       <c r="R7" s="40"/>
-      <c r="S7" s="32"/>
+      <c r="S7" s="32">
+        <v>1</v>
+      </c>
       <c r="T7" s="40"/>
       <c r="U7" s="32"/>
       <c r="V7" s="40"/>
       <c r="W7" s="32"/>
       <c r="X7" s="41"/>
-      <c r="Y7" s="57" t="s">
+      <c r="Y7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="53"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="70"/>
     </row>
     <row r="8" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="27">
         <v>1</v>
       </c>
@@ -1799,27 +1800,29 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="40"/>
-      <c r="S8" s="32"/>
+      <c r="S8" s="32">
+        <v>1</v>
+      </c>
       <c r="T8" s="40"/>
       <c r="U8" s="32"/>
       <c r="V8" s="40"/>
       <c r="W8" s="32"/>
       <c r="X8" s="41"/>
-      <c r="Y8" s="57" t="s">
+      <c r="Y8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="53"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="70"/>
     </row>
     <row r="9" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>6</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="27">
         <v>1</v>
       </c>
@@ -1854,21 +1857,21 @@
       <c r="V9" s="40"/>
       <c r="W9" s="32"/>
       <c r="X9" s="41"/>
-      <c r="Y9" s="57" t="s">
+      <c r="Y9" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="53"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="70"/>
     </row>
     <row r="10" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>7</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="27">
         <v>1</v>
       </c>
@@ -1901,21 +1904,21 @@
       <c r="V10" s="40"/>
       <c r="W10" s="32"/>
       <c r="X10" s="41"/>
-      <c r="Y10" s="57" t="s">
+      <c r="Y10" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" s="52"/>
-      <c r="AA10" s="53"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="70"/>
     </row>
     <row r="11" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>8</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="27">
         <v>1</v>
       </c>
@@ -1944,17 +1947,19 @@
         <v>1</v>
       </c>
       <c r="R11" s="40"/>
-      <c r="S11" s="32"/>
+      <c r="S11" s="32">
+        <v>1</v>
+      </c>
       <c r="T11" s="40"/>
       <c r="U11" s="32"/>
       <c r="V11" s="40"/>
       <c r="W11" s="32"/>
       <c r="X11" s="41"/>
-      <c r="Y11" s="57" t="s">
+      <c r="Y11" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="53"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="70"/>
       <c r="AB11" s="37" t="s">
         <v>31</v>
       </c>
@@ -1963,11 +1968,11 @@
       <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="28"/>
       <c r="F12" s="39"/>
       <c r="G12" s="30">
@@ -1990,21 +1995,21 @@
       <c r="V12" s="40"/>
       <c r="W12" s="32"/>
       <c r="X12" s="41"/>
-      <c r="Y12" s="57" t="s">
+      <c r="Y12" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="53"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="70"/>
     </row>
     <row r="13" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="28">
         <v>1</v>
       </c>
@@ -2035,15 +2040,17 @@
         <v>1</v>
       </c>
       <c r="R13" s="40"/>
-      <c r="S13" s="32"/>
+      <c r="S13" s="32">
+        <v>1</v>
+      </c>
       <c r="T13" s="40"/>
       <c r="U13" s="32"/>
       <c r="V13" s="40"/>
       <c r="W13" s="32"/>
       <c r="X13" s="41"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="53"/>
+      <c r="Y13" s="86"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="37" t="s">
         <v>31</v>
       </c>
@@ -2052,11 +2059,11 @@
       <c r="A14" s="33">
         <v>11</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="28"/>
       <c r="F14" s="39"/>
       <c r="G14" s="30"/>
@@ -2079,19 +2086,19 @@
       <c r="V14" s="40"/>
       <c r="W14" s="32"/>
       <c r="X14" s="41"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="53"/>
+      <c r="Y14" s="86"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="70"/>
     </row>
     <row r="15" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>12</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="28"/>
       <c r="F15" s="39">
         <v>1</v>
@@ -2118,19 +2125,19 @@
       <c r="V15" s="40"/>
       <c r="W15" s="32"/>
       <c r="X15" s="41"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="53"/>
+      <c r="Y15" s="86"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="70"/>
     </row>
     <row r="16" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>13</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="28"/>
       <c r="F16" s="39">
         <v>1</v>
@@ -2151,25 +2158,27 @@
         <v>1</v>
       </c>
       <c r="R16" s="40"/>
-      <c r="S16" s="32"/>
+      <c r="S16" s="32">
+        <v>1</v>
+      </c>
       <c r="T16" s="40"/>
       <c r="U16" s="32"/>
       <c r="V16" s="40"/>
       <c r="W16" s="32"/>
       <c r="X16" s="41"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="53"/>
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="70"/>
     </row>
     <row r="17" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>14</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="28"/>
       <c r="F17" s="39">
         <v>1</v>
@@ -2186,25 +2195,27 @@
       <c r="P17" s="25"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="40"/>
-      <c r="S17" s="32"/>
+      <c r="S17" s="32">
+        <v>1</v>
+      </c>
       <c r="T17" s="40"/>
       <c r="U17" s="32"/>
       <c r="V17" s="40"/>
       <c r="W17" s="32"/>
       <c r="X17" s="41"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="53"/>
+      <c r="Y17" s="86"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="70"/>
     </row>
     <row r="18" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>15</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="28"/>
       <c r="F18" s="39">
         <v>1</v>
@@ -2229,17 +2240,17 @@
       <c r="V18" s="40"/>
       <c r="W18" s="32"/>
       <c r="X18" s="41"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="53"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="70"/>
     </row>
     <row r="19" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>16</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="28"/>
       <c r="F19" s="39"/>
       <c r="G19" s="30"/>
@@ -2260,17 +2271,17 @@
       <c r="V19" s="40"/>
       <c r="W19" s="32"/>
       <c r="X19" s="41"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="53"/>
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="70"/>
     </row>
     <row r="20" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>17</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="28"/>
       <c r="F20" s="39"/>
       <c r="G20" s="30"/>
@@ -2291,17 +2302,17 @@
       <c r="V20" s="40"/>
       <c r="W20" s="32"/>
       <c r="X20" s="41"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="53"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="70"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="28"/>
       <c r="F21" s="18"/>
       <c r="G21" s="30"/>
@@ -2322,17 +2333,17 @@
       <c r="V21" s="6"/>
       <c r="W21" s="32"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="56"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18"/>
       <c r="G22" s="30"/>
@@ -2353,17 +2364,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="15"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="56"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18"/>
       <c r="G23" s="30"/>
@@ -2384,17 +2395,17 @@
       <c r="V23" s="6"/>
       <c r="W23" s="15"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="56"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18"/>
       <c r="G24" s="12"/>
@@ -2415,17 +2426,17 @@
       <c r="V24" s="6"/>
       <c r="W24" s="15"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="56"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="11"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
@@ -2446,42 +2457,33 @@
       <c r="V25" s="20"/>
       <c r="W25" s="14"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
@@ -2498,27 +2500,36 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2550,7 +2561,7 @@
   <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,114 +2572,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="75" t="s">
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="98" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="70" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70" t="s">
+      <c r="T1" s="56"/>
+      <c r="U1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70" t="s">
+      <c r="V1" s="56"/>
+      <c r="W1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="58" t="s">
+      <c r="X1" s="74"/>
+      <c r="Y1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="60"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="63"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="74">
+      <c r="A2" s="72"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="76">
         <v>43382</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71">
+      <c r="F2" s="54"/>
+      <c r="G2" s="54">
         <v>43390</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71">
+      <c r="H2" s="54"/>
+      <c r="I2" s="54">
         <v>43396</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54">
         <v>43410</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54">
         <v>43418</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="97">
+      <c r="N2" s="54"/>
+      <c r="O2" s="90">
         <v>43424</v>
       </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="71">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="54">
         <v>43438</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54">
         <v>43446</v>
       </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71">
+      <c r="T2" s="54"/>
+      <c r="U2" s="54">
         <v>43452</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71">
+      <c r="V2" s="54"/>
+      <c r="W2" s="54">
         <v>43460</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="63"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="64"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -2729,19 +2740,19 @@
       <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="63"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="64"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -2766,7 +2777,9 @@
       <c r="N4" s="5"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="16">
+        <v>1</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="16"/>
       <c r="T4" s="5"/>
@@ -2774,21 +2787,21 @@
       <c r="V4" s="5"/>
       <c r="W4" s="16"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="91" t="s">
+      <c r="Y4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="93"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="97"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -2813,7 +2826,9 @@
       <c r="N5" s="6"/>
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
-      <c r="Q5" s="15"/>
+      <c r="Q5" s="15">
+        <v>1</v>
+      </c>
       <c r="R5" s="6"/>
       <c r="S5" s="15"/>
       <c r="T5" s="6"/>
@@ -2821,21 +2836,21 @@
       <c r="V5" s="6"/>
       <c r="W5" s="15"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="90" t="s">
+      <c r="Y5" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="56"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="89"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="104"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -2854,7 +2869,9 @@
       <c r="N6" s="6"/>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
-      <c r="Q6" s="15"/>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="15"/>
       <c r="T6" s="6"/>
@@ -2862,21 +2879,21 @@
       <c r="V6" s="6"/>
       <c r="W6" s="15"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="94" t="s">
+      <c r="Y6" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="96"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="107"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -2907,21 +2924,21 @@
       <c r="V7" s="6"/>
       <c r="W7" s="15"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="90" t="s">
+      <c r="Y7" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="56"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="89"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -2944,7 +2961,9 @@
       <c r="N8" s="6"/>
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
-      <c r="Q8" s="15"/>
+      <c r="Q8" s="15">
+        <v>1</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="15"/>
       <c r="T8" s="6"/>
@@ -2952,21 +2971,21 @@
       <c r="V8" s="6"/>
       <c r="W8" s="15"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="90" t="s">
+      <c r="Y8" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="56"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="89"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -2989,21 +3008,21 @@
       <c r="V9" s="6"/>
       <c r="W9" s="15"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="90" t="s">
+      <c r="Y9" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="56"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="89"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -3024,7 +3043,9 @@
       <c r="N10" s="6"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="15">
+        <v>1</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="15"/>
       <c r="T10" s="6"/>
@@ -3032,21 +3053,21 @@
       <c r="V10" s="6"/>
       <c r="W10" s="15"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="90" t="s">
+      <c r="Y10" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="56"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="89"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -3067,7 +3088,9 @@
       <c r="N11" s="6"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="15"/>
+      <c r="Q11" s="15">
+        <v>1</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="15"/>
       <c r="T11" s="6"/>
@@ -3075,21 +3098,21 @@
       <c r="V11" s="6"/>
       <c r="W11" s="15"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="90" t="s">
+      <c r="Y11" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="56"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="89"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="104"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
@@ -3116,21 +3139,21 @@
       <c r="V12" s="6"/>
       <c r="W12" s="15"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="90" t="s">
+      <c r="Y12" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="56"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="89"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
@@ -3147,7 +3170,9 @@
       <c r="N13" s="6"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="15"/>
+      <c r="Q13" s="15">
+        <v>1</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="15"/>
       <c r="T13" s="6"/>
@@ -3155,21 +3180,21 @@
       <c r="V13" s="6"/>
       <c r="W13" s="15"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="90" t="s">
+      <c r="Y13" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="56"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18">
@@ -3186,7 +3211,9 @@
       <c r="N14" s="6"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="15"/>
+      <c r="Q14" s="15">
+        <v>1</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="15"/>
       <c r="T14" s="6"/>
@@ -3194,21 +3221,21 @@
       <c r="V14" s="6"/>
       <c r="W14" s="15"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="90" t="s">
+      <c r="Y14" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="56"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18"/>
       <c r="G15" s="12"/>
@@ -3229,19 +3256,19 @@
       <c r="V15" s="6"/>
       <c r="W15" s="15"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="56"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="89"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18"/>
       <c r="G16" s="12"/>
@@ -3262,19 +3289,19 @@
       <c r="V16" s="6"/>
       <c r="W16" s="15"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="56"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="89"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
@@ -3295,19 +3322,19 @@
       <c r="V17" s="6"/>
       <c r="W17" s="15"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="56"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="89"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18"/>
       <c r="G18" s="12"/>
@@ -3328,19 +3355,19 @@
       <c r="V18" s="6"/>
       <c r="W18" s="15"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="56"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="89"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18"/>
       <c r="G19" s="12"/>
@@ -3361,17 +3388,17 @@
       <c r="V19" s="6"/>
       <c r="W19" s="15"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="56"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="89"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18"/>
       <c r="G20" s="12"/>
@@ -3392,17 +3419,17 @@
       <c r="V20" s="6"/>
       <c r="W20" s="15"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="56"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="89"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18"/>
       <c r="G21" s="12"/>
@@ -3423,17 +3450,17 @@
       <c r="V21" s="6"/>
       <c r="W21" s="15"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="56"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18"/>
       <c r="G22" s="12"/>
@@ -3454,17 +3481,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="15"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="56"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18"/>
       <c r="G23" s="12"/>
@@ -3485,17 +3512,17 @@
       <c r="V23" s="6"/>
       <c r="W23" s="15"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="56"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18"/>
       <c r="G24" s="12"/>
@@ -3516,17 +3543,17 @@
       <c r="V24" s="6"/>
       <c r="W24" s="15"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="56"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="11"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
@@ -3547,19 +3574,56 @@
       <c r="V25" s="20"/>
       <c r="W25" s="14"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="44"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="78"/>
+      <c r="AA25" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3576,50 +3640,13 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">

--- a/Присутствие и дз.xlsx
+++ b/Присутствие и дз.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sok12\OneDrive\Documents\design-of-aipacs-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54A9153F-00A8-4F5B-B719-C57ADB811B23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CE3E2067-CACB-4D29-91F8-07C7444FDE8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="САПР - 1.1н" sheetId="1" r:id="rId1"/>
@@ -829,22 +829,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -865,112 +955,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,54 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1385,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,114 +1399,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56" t="s">
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56" t="s">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="57" t="s">
+      <c r="X1" s="72"/>
+      <c r="Y1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="63"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="60"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="76">
+      <c r="A2" s="68"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="74">
         <v>43376</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71">
         <v>43382</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71">
         <v>43396</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71">
         <v>43404</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71">
         <v>43410</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54">
+      <c r="N2" s="71"/>
+      <c r="O2" s="71">
         <v>43424</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54">
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71">
         <v>43432</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71">
         <v>43438</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54">
+      <c r="T2" s="71"/>
+      <c r="U2" s="71">
         <v>43452</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54">
+      <c r="V2" s="71"/>
+      <c r="W2" s="71">
         <v>43460</v>
       </c>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="64"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1567,19 +1567,19 @@
       <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="64"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="63"/>
     </row>
     <row r="4" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="47"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="27">
         <v>1</v>
       </c>
@@ -1608,21 +1608,21 @@
       <c r="V4" s="35"/>
       <c r="W4" s="31"/>
       <c r="X4" s="36"/>
-      <c r="Y4" s="65" t="s">
+      <c r="Y4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
     </row>
     <row r="5" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="27">
         <v>1</v>
       </c>
@@ -1661,21 +1661,21 @@
       <c r="V5" s="40"/>
       <c r="W5" s="32"/>
       <c r="X5" s="41"/>
-      <c r="Y5" s="68" t="s">
+      <c r="Y5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="70"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="53"/>
     </row>
     <row r="6" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>3</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="82"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
       <c r="E6" s="27">
         <v>1</v>
       </c>
@@ -1712,21 +1712,21 @@
       <c r="V6" s="40"/>
       <c r="W6" s="32"/>
       <c r="X6" s="41"/>
-      <c r="Y6" s="83" t="s">
+      <c r="Y6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="85"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="50"/>
     </row>
     <row r="7" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="27">
         <v>1</v>
       </c>
@@ -1761,21 +1761,21 @@
       <c r="V7" s="40"/>
       <c r="W7" s="32"/>
       <c r="X7" s="41"/>
-      <c r="Y7" s="68" t="s">
+      <c r="Y7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="70"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="53"/>
     </row>
     <row r="8" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>5</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="27">
         <v>1</v>
       </c>
@@ -1808,21 +1808,21 @@
       <c r="V8" s="40"/>
       <c r="W8" s="32"/>
       <c r="X8" s="41"/>
-      <c r="Y8" s="68" t="s">
+      <c r="Y8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="70"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
     </row>
     <row r="9" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>6</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="27">
         <v>1</v>
       </c>
@@ -1857,21 +1857,21 @@
       <c r="V9" s="40"/>
       <c r="W9" s="32"/>
       <c r="X9" s="41"/>
-      <c r="Y9" s="68" t="s">
+      <c r="Y9" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="70"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="53"/>
     </row>
     <row r="10" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>7</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="27">
         <v>1</v>
       </c>
@@ -1904,21 +1904,21 @@
       <c r="V10" s="40"/>
       <c r="W10" s="32"/>
       <c r="X10" s="41"/>
-      <c r="Y10" s="68" t="s">
+      <c r="Y10" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="70"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="53"/>
     </row>
     <row r="11" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="27">
         <v>1</v>
       </c>
@@ -1934,7 +1934,9 @@
       <c r="I11" s="30">
         <v>1</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="39">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="30"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
@@ -1955,11 +1957,11 @@
       <c r="V11" s="40"/>
       <c r="W11" s="32"/>
       <c r="X11" s="41"/>
-      <c r="Y11" s="68" t="s">
+      <c r="Y11" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="70"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="53"/>
       <c r="AB11" s="37" t="s">
         <v>31</v>
       </c>
@@ -1968,11 +1970,11 @@
       <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="28"/>
       <c r="F12" s="39"/>
       <c r="G12" s="30">
@@ -1995,21 +1997,21 @@
       <c r="V12" s="40"/>
       <c r="W12" s="32"/>
       <c r="X12" s="41"/>
-      <c r="Y12" s="68" t="s">
+      <c r="Y12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="70"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="53"/>
     </row>
     <row r="13" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="28">
         <v>1</v>
       </c>
@@ -2025,7 +2027,9 @@
       <c r="I13" s="30">
         <v>1</v>
       </c>
-      <c r="J13" s="39"/>
+      <c r="J13" s="39">
+        <v>1</v>
+      </c>
       <c r="K13" s="30">
         <v>1</v>
       </c>
@@ -2048,9 +2052,9 @@
       <c r="V13" s="40"/>
       <c r="W13" s="32"/>
       <c r="X13" s="41"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="70"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="53"/>
       <c r="AB13" s="37" t="s">
         <v>31</v>
       </c>
@@ -2059,11 +2063,11 @@
       <c r="A14" s="33">
         <v>11</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="28"/>
       <c r="F14" s="39"/>
       <c r="G14" s="30"/>
@@ -2086,24 +2090,28 @@
       <c r="V14" s="40"/>
       <c r="W14" s="32"/>
       <c r="X14" s="41"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="70"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="53"/>
     </row>
     <row r="15" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>12</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
       <c r="F15" s="39">
         <v>1</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="30">
+        <v>1</v>
+      </c>
       <c r="H15" s="39">
         <v>1</v>
       </c>
@@ -2125,19 +2133,19 @@
       <c r="V15" s="40"/>
       <c r="W15" s="32"/>
       <c r="X15" s="41"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="70"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="53"/>
     </row>
     <row r="16" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>13</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="28"/>
       <c r="F16" s="39">
         <v>1</v>
@@ -2147,7 +2155,9 @@
         <v>1</v>
       </c>
       <c r="I16" s="30"/>
-      <c r="J16" s="39"/>
+      <c r="J16" s="39">
+        <v>0.5</v>
+      </c>
       <c r="K16" s="30"/>
       <c r="L16" s="39"/>
       <c r="M16" s="32"/>
@@ -2166,19 +2176,19 @@
       <c r="V16" s="40"/>
       <c r="W16" s="32"/>
       <c r="X16" s="41"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="70"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="53"/>
     </row>
     <row r="17" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>14</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="28"/>
       <c r="F17" s="39">
         <v>1</v>
@@ -2203,19 +2213,19 @@
       <c r="V17" s="40"/>
       <c r="W17" s="32"/>
       <c r="X17" s="41"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="70"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="53"/>
     </row>
     <row r="18" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>15</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="28"/>
       <c r="F18" s="39">
         <v>1</v>
@@ -2240,17 +2250,17 @@
       <c r="V18" s="40"/>
       <c r="W18" s="32"/>
       <c r="X18" s="41"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="70"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="53"/>
     </row>
     <row r="19" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38">
         <v>16</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="28"/>
       <c r="F19" s="39"/>
       <c r="G19" s="30"/>
@@ -2271,17 +2281,17 @@
       <c r="V19" s="40"/>
       <c r="W19" s="32"/>
       <c r="X19" s="41"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="70"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="53"/>
     </row>
     <row r="20" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>17</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="28"/>
       <c r="F20" s="39"/>
       <c r="G20" s="30"/>
@@ -2302,17 +2312,17 @@
       <c r="V20" s="40"/>
       <c r="W20" s="32"/>
       <c r="X20" s="41"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="70"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="53"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="28"/>
       <c r="F21" s="18"/>
       <c r="G21" s="30"/>
@@ -2333,17 +2343,17 @@
       <c r="V21" s="6"/>
       <c r="W21" s="32"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18"/>
       <c r="G22" s="30"/>
@@ -2364,17 +2374,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="15"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18"/>
       <c r="G23" s="30"/>
@@ -2395,17 +2405,17 @@
       <c r="V23" s="6"/>
       <c r="W23" s="15"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="56"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18"/>
       <c r="G24" s="12"/>
@@ -2426,17 +2436,17 @@
       <c r="V24" s="6"/>
       <c r="W24" s="15"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="56"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="11"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
@@ -2457,12 +2467,63 @@
       <c r="V25" s="20"/>
       <c r="W25" s="14"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="79"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Y1:AA3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="Y25:AA25"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="Y6:AA6"/>
@@ -2479,57 +2540,6 @@
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y1:AA3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="qwe">
@@ -2560,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,114 +2582,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="55" t="s">
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="70"/>
+      <c r="K1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="56"/>
-      <c r="O1" s="91" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="56" t="s">
+      <c r="P1" s="107"/>
+      <c r="Q1" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56" t="s">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="57" t="s">
+      <c r="X1" s="72"/>
+      <c r="Y1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="63"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="60"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="76">
+      <c r="A2" s="68"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="74">
         <v>43382</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54">
+      <c r="F2" s="71"/>
+      <c r="G2" s="71">
         <v>43390</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71">
         <v>43396</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54">
+      <c r="J2" s="71"/>
+      <c r="K2" s="71">
         <v>43410</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71">
         <v>43418</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="90">
+      <c r="N2" s="71"/>
+      <c r="O2" s="106">
         <v>43424</v>
       </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="54">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="71">
         <v>43438</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71">
         <v>43446</v>
       </c>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54">
+      <c r="T2" s="71"/>
+      <c r="U2" s="71">
         <v>43452</v>
       </c>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54">
+      <c r="V2" s="71"/>
+      <c r="W2" s="71">
         <v>43460</v>
       </c>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="64"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="63"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="19" t="s">
         <v>13</v>
       </c>
@@ -2740,19 +2750,19 @@
       <c r="X3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="64"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="63"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -2787,25 +2797,27 @@
       <c r="V4" s="5"/>
       <c r="W4" s="16"/>
       <c r="X4" s="7"/>
-      <c r="Y4" s="95" t="s">
+      <c r="Y4" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="97"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="99"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
       <c r="G5" s="18">
         <v>1</v>
       </c>
@@ -2836,21 +2848,21 @@
       <c r="V5" s="6"/>
       <c r="W5" s="15"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="101" t="s">
+      <c r="Y5" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="89"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="56"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="104"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="3">
         <v>1</v>
       </c>
@@ -2879,21 +2891,21 @@
       <c r="V6" s="6"/>
       <c r="W6" s="15"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="105" t="s">
+      <c r="Y6" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="106"/>
-      <c r="AA6" s="107"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="105"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -2924,21 +2936,21 @@
       <c r="V7" s="6"/>
       <c r="W7" s="15"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="101" t="s">
+      <c r="Y7" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="89"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="56"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="3">
         <v>1</v>
       </c>
@@ -2971,21 +2983,21 @@
       <c r="V8" s="6"/>
       <c r="W8" s="15"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="101" t="s">
+      <c r="Y8" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="89"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="56"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="3">
         <v>1</v>
       </c>
@@ -3008,21 +3020,21 @@
       <c r="V9" s="6"/>
       <c r="W9" s="15"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="101" t="s">
+      <c r="Y9" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="89"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="56"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="3">
         <v>1</v>
       </c>
@@ -3053,21 +3065,21 @@
       <c r="V10" s="6"/>
       <c r="W10" s="15"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="101" t="s">
+      <c r="Y10" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="89"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="56"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="3">
         <v>1</v>
       </c>
@@ -3098,21 +3110,21 @@
       <c r="V11" s="6"/>
       <c r="W11" s="15"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="101" t="s">
+      <c r="Y11" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="89"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="56"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="4">
         <v>1</v>
       </c>
@@ -3139,21 +3151,21 @@
       <c r="V12" s="6"/>
       <c r="W12" s="15"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="101" t="s">
+      <c r="Y12" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="89"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="56"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="10"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
@@ -3180,21 +3192,21 @@
       <c r="V13" s="6"/>
       <c r="W13" s="15"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="101" t="s">
+      <c r="Y13" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="89"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="56"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="10"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18">
@@ -3221,21 +3233,21 @@
       <c r="V14" s="6"/>
       <c r="W14" s="15"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="101" t="s">
+      <c r="Y14" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="89"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="56"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="10"/>
       <c r="F15" s="18"/>
       <c r="G15" s="12"/>
@@ -3256,19 +3268,19 @@
       <c r="V15" s="6"/>
       <c r="W15" s="15"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="89"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="56"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="10"/>
       <c r="F16" s="18"/>
       <c r="G16" s="12"/>
@@ -3289,19 +3301,19 @@
       <c r="V16" s="6"/>
       <c r="W16" s="15"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="89"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="56"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="10"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
@@ -3322,19 +3334,19 @@
       <c r="V17" s="6"/>
       <c r="W17" s="15"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="89"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="56"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="10"/>
       <c r="F18" s="18"/>
       <c r="G18" s="12"/>
@@ -3355,19 +3367,19 @@
       <c r="V18" s="6"/>
       <c r="W18" s="15"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="89"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="56"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
       <c r="E19" s="10"/>
       <c r="F19" s="18"/>
       <c r="G19" s="12"/>
@@ -3388,17 +3400,17 @@
       <c r="V19" s="6"/>
       <c r="W19" s="15"/>
       <c r="X19" s="8"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="89"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="56"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="10"/>
       <c r="F20" s="18"/>
       <c r="G20" s="12"/>
@@ -3419,17 +3431,17 @@
       <c r="V20" s="6"/>
       <c r="W20" s="15"/>
       <c r="X20" s="8"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="89"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="56"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="10"/>
       <c r="F21" s="18"/>
       <c r="G21" s="12"/>
@@ -3450,17 +3462,17 @@
       <c r="V21" s="6"/>
       <c r="W21" s="15"/>
       <c r="X21" s="8"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="56"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="E22" s="10"/>
       <c r="F22" s="18"/>
       <c r="G22" s="12"/>
@@ -3481,17 +3493,17 @@
       <c r="V22" s="6"/>
       <c r="W22" s="15"/>
       <c r="X22" s="8"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="56"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="50"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="10"/>
       <c r="F23" s="18"/>
       <c r="G23" s="12"/>
@@ -3512,17 +3524,17 @@
       <c r="V23" s="6"/>
       <c r="W23" s="15"/>
       <c r="X23" s="8"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="56"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="50"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="10"/>
       <c r="F24" s="18"/>
       <c r="G24" s="12"/>
@@ -3543,17 +3555,17 @@
       <c r="V24" s="6"/>
       <c r="W24" s="15"/>
       <c r="X24" s="8"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="56"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="11"/>
       <c r="F25" s="20"/>
       <c r="G25" s="14"/>
@@ -3574,56 +3586,19 @@
       <c r="V25" s="20"/>
       <c r="W25" s="14"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="79"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:AA3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -3640,13 +3615,50 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="Y24:AA24"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="qwe">
